--- a/LM2ReadandList/bin/Debug/NewListOut25.xlsx
+++ b/LM2ReadandList/bin/Debug/NewListOut25.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00570\Desktop\LM2ReadandList\LM2ReadandList\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80F3C34-5A34-424A-BCDD-A7AB101BD365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7380" tabRatio="957"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="957" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25支嘜頭_2.1" sheetId="27" r:id="rId1"/>
@@ -48,8 +54,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,13 +120,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -239,6 +238,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -289,20 +299,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -334,15 +356,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -352,26 +365,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="2"/>
-    <cellStyle name="一般 3" xfId="1"/>
+    <cellStyle name="一般 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,14 +403,20 @@
       <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>857810</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1830</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1" descr="logo白底黑字.png"/>
+        <xdr:cNvPr id="2" name="圖片 1" descr="logo白底黑字.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -461,7 +485,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,9 +517,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,6 +569,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -702,231 +762,231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="8" width="12.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.625" style="1" customWidth="1"/>
+    <col min="1" max="8" width="12.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="16" width="28.625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="28.6640625" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="1" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
       <c r="A1" s="2"/>
       <c r="B1" s="6"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:17" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="7"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
       <c r="O2" s="11"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:17" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="3" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
       <c r="O3" s="11"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="4" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
       <c r="O4" s="8"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="1:17" ht="27.95" customHeight="1" thickBot="1">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:17" ht="27.9" customHeight="1" thickBot="1">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="13"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="37"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:17" ht="47.1" customHeight="1" thickBot="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="10"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="14"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
+      <c r="M6" s="13"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="47.1" customHeight="1" thickBot="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="10"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="14"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
+      <c r="M7" s="13"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="47.1" customHeight="1" thickBot="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="10"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="14"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
+      <c r="M8" s="13"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
       <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="47.1" customHeight="1" thickBot="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="10"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="14"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
+      <c r="M9" s="13"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17" ht="47.1" customHeight="1" thickBot="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="10"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="14"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
+      <c r="M10" s="13"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
       <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:17" ht="42" customHeight="1" thickBot="1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
       <c r="O11" s="12"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="9"/>
@@ -940,6 +1000,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="G4:M4"/>
     <mergeCell ref="O5:P10"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
@@ -956,30 +1040,6 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/LM2ReadandList/bin/Debug/NewListOut25.xlsx
+++ b/LM2ReadandList/bin/Debug/NewListOut25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00570\Desktop\LM2ReadandList\LM2ReadandList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00570\Desktop\GitHub\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80F3C34-5A34-424A-BCDD-A7AB101BD365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F12D56F-CF0F-474D-86EB-6EBB06817816}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="957" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="957" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25支嘜頭_2.1" sheetId="27" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +120,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -259,7 +266,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,8 +312,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -326,53 +378,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -766,10 +782,10 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G1" sqref="G1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="12.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.109375" style="1" customWidth="1"/>
@@ -782,224 +798,248 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
+    <row r="1" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="6"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
-    </row>
-    <row r="2" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="7"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="11"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
+    <row r="3" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
       <c r="O3" s="11"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
+    <row r="4" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
       <c r="O4" s="8"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="1:17" ht="27.9" customHeight="1" thickBot="1">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:17" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="37"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="47.1" customHeight="1" thickBot="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
+    <row r="6" spans="1:17" ht="47.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="10"/>
       <c r="L6" s="8"/>
       <c r="M6" s="13"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="47.1" customHeight="1" thickBot="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+    <row r="7" spans="1:17" ht="47.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="10"/>
       <c r="L7" s="8"/>
       <c r="M7" s="13"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="47.1" customHeight="1" thickBot="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
+    <row r="8" spans="1:17" ht="47.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="10"/>
       <c r="L8" s="8"/>
       <c r="M8" s="13"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="47.1" customHeight="1" thickBot="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
+    <row r="9" spans="1:17" ht="47.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="10"/>
       <c r="L9" s="8"/>
       <c r="M9" s="13"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="47.1" customHeight="1" thickBot="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
+    <row r="10" spans="1:17" ht="47.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="10"/>
       <c r="L10" s="8"/>
       <c r="M10" s="13"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="42" customHeight="1" thickBot="1">
+    <row r="11" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="28"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
       <c r="O11" s="12"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="O5:P10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="G4:M4"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:G11"/>
@@ -1016,30 +1056,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="O5:P10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
